--- a/test/test_data.xlsx
+++ b/test/test_data.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jingqi/Desktop/teampartition/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jingqi/Desktop/teampartition/test/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14301EE8-B64A-7248-B95B-051704AEAA6B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18001678-E0A6-744A-89EF-5B519B3C2646}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="740" windowWidth="27980" windowHeight="18380" xr2:uid="{8F58AEF8-0A0C-344B-AB88-3ED362C15D30}"/>
   </bookViews>
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="72">
   <si>
     <t>Setter</t>
   </si>
@@ -271,6 +271,9 @@
   </si>
   <si>
     <t>Conflict 7</t>
+  </si>
+  <si>
+    <t>Libero</t>
   </si>
 </sst>
 </file>
@@ -642,10 +645,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DEDB53DD-9CE0-324D-9E65-939BBD020834}">
-  <dimension ref="A1:P47"/>
+  <dimension ref="A1:Q47"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
       <selection pane="bottomRight"/>
@@ -655,10 +658,10 @@
   <cols>
     <col min="1" max="1" width="16.83203125" customWidth="1"/>
     <col min="2" max="3" width="10.83203125" hidden="1" customWidth="1"/>
-    <col min="10" max="16" width="16.83203125" customWidth="1"/>
+    <col min="11" max="17" width="16.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>15</v>
       </c>
@@ -681,34 +684,37 @@
         <v>3</v>
       </c>
       <c r="H1" t="s">
+        <v>71</v>
+      </c>
+      <c r="I1" t="s">
         <v>0</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>4</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>17</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>16</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>66</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>67</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>68</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>69</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>20</v>
       </c>
@@ -730,7 +736,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>21</v>
       </c>
@@ -751,11 +757,11 @@
       <c r="F3" t="s">
         <v>7</v>
       </c>
-      <c r="J3" t="s">
+      <c r="K3" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>22</v>
       </c>
@@ -779,11 +785,11 @@
       <c r="G4" t="s">
         <v>7</v>
       </c>
-      <c r="H4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="I4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>23</v>
       </c>
@@ -805,7 +811,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>24</v>
       </c>
@@ -829,11 +835,11 @@
       <c r="G6" t="s">
         <v>9</v>
       </c>
-      <c r="H6" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="I6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>25</v>
       </c>
@@ -854,29 +860,29 @@
       <c r="F7" t="s">
         <v>7</v>
       </c>
-      <c r="J7" t="s">
+      <c r="K7" t="s">
         <v>25</v>
       </c>
-      <c r="K7" t="s">
+      <c r="L7" t="s">
         <v>26</v>
       </c>
-      <c r="L7" t="s">
+      <c r="M7" t="s">
         <v>27</v>
       </c>
-      <c r="M7" t="s">
+      <c r="N7" t="s">
         <v>28</v>
       </c>
-      <c r="N7" t="s">
+      <c r="O7" t="s">
         <v>46</v>
       </c>
-      <c r="O7" t="s">
+      <c r="P7" t="s">
         <v>59</v>
       </c>
-      <c r="P7" t="s">
+      <c r="Q7" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>26</v>
       </c>
@@ -900,11 +906,11 @@
       <c r="G8" t="s">
         <v>11</v>
       </c>
-      <c r="H8" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="I8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>27</v>
       </c>
@@ -926,7 +932,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>28</v>
       </c>
@@ -947,11 +953,14 @@
       <c r="F10" t="s">
         <v>12</v>
       </c>
-      <c r="I10" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="H10" t="s">
+        <v>10</v>
+      </c>
+      <c r="J10" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>46</v>
       </c>
@@ -975,11 +984,11 @@
       <c r="G11" t="s">
         <v>8</v>
       </c>
-      <c r="H11" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="I11" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>59</v>
       </c>
@@ -1000,14 +1009,14 @@
       <c r="F12" t="s">
         <v>11</v>
       </c>
-      <c r="J12" t="s">
+      <c r="K12" t="s">
         <v>58</v>
       </c>
-      <c r="K12" t="s">
+      <c r="L12" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>58</v>
       </c>
@@ -1028,17 +1037,17 @@
       <c r="F13" t="s">
         <v>11</v>
       </c>
-      <c r="I13" t="s">
-        <v>10</v>
-      </c>
       <c r="J13" t="s">
+        <v>10</v>
+      </c>
+      <c r="K13" t="s">
         <v>59</v>
       </c>
-      <c r="K13" t="s">
+      <c r="L13" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>29</v>
       </c>
@@ -1059,14 +1068,14 @@
       <c r="F14" t="s">
         <v>11</v>
       </c>
-      <c r="I14" t="s">
-        <v>10</v>
-      </c>
       <c r="J14" t="s">
+        <v>10</v>
+      </c>
+      <c r="K14" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>61</v>
       </c>
@@ -1087,17 +1096,17 @@
       <c r="F15" t="s">
         <v>11</v>
       </c>
-      <c r="I15" t="s">
-        <v>10</v>
-      </c>
       <c r="J15" t="s">
+        <v>10</v>
+      </c>
+      <c r="K15" t="s">
         <v>30</v>
       </c>
-      <c r="K15" t="s">
+      <c r="L15" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>30</v>
       </c>
@@ -1118,17 +1127,17 @@
       <c r="F16" t="s">
         <v>12</v>
       </c>
-      <c r="I16" t="s">
-        <v>10</v>
-      </c>
       <c r="J16" t="s">
+        <v>10</v>
+      </c>
+      <c r="K16" t="s">
         <v>61</v>
       </c>
-      <c r="K16" t="s">
+      <c r="L16" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>31</v>
       </c>
@@ -1152,11 +1161,11 @@
       <c r="G17" t="s">
         <v>7</v>
       </c>
-      <c r="H17" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="I17" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>35</v>
       </c>
@@ -1177,11 +1186,11 @@
       <c r="F18" t="s">
         <v>11</v>
       </c>
-      <c r="I18" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="J18" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>32</v>
       </c>
@@ -1202,11 +1211,11 @@
       <c r="F19" t="s">
         <v>11</v>
       </c>
-      <c r="J19" t="s">
+      <c r="K19" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>64</v>
       </c>
@@ -1230,20 +1239,20 @@
       <c r="G20" t="s">
         <v>7</v>
       </c>
-      <c r="H20" t="s">
-        <v>10</v>
-      </c>
-      <c r="J20" t="s">
+      <c r="I20" t="s">
+        <v>10</v>
+      </c>
+      <c r="K20" t="s">
         <v>25</v>
       </c>
-      <c r="K20" t="s">
+      <c r="L20" t="s">
         <v>36</v>
       </c>
-      <c r="L20" t="s">
+      <c r="M20" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>33</v>
       </c>
@@ -1265,7 +1274,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>34</v>
       </c>
@@ -1287,7 +1296,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>36</v>
       </c>
@@ -1308,14 +1317,14 @@
       <c r="F23" t="s">
         <v>8</v>
       </c>
-      <c r="J23" t="s">
+      <c r="K23" t="s">
         <v>64</v>
       </c>
-      <c r="K23" t="s">
+      <c r="L23" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>65</v>
       </c>
@@ -1336,17 +1345,17 @@
       <c r="F24" t="s">
         <v>8</v>
       </c>
-      <c r="J24" t="s">
+      <c r="K24" t="s">
         <v>36</v>
       </c>
-      <c r="K24" t="s">
+      <c r="L24" t="s">
         <v>37</v>
       </c>
-      <c r="L24" t="s">
+      <c r="M24" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>37</v>
       </c>
@@ -1367,14 +1376,14 @@
       <c r="F25" t="s">
         <v>11</v>
       </c>
-      <c r="I25" t="s">
-        <v>10</v>
-      </c>
       <c r="J25" t="s">
+        <v>10</v>
+      </c>
+      <c r="K25" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>38</v>
       </c>
@@ -1396,7 +1405,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>39</v>
       </c>
@@ -1418,7 +1427,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>40</v>
       </c>
@@ -1440,7 +1449,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>41</v>
       </c>
@@ -1464,11 +1473,11 @@
       <c r="G29" t="s">
         <v>11</v>
       </c>
-      <c r="H29" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="I29" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>42</v>
       </c>
@@ -1492,11 +1501,11 @@
       <c r="G30" t="s">
         <v>11</v>
       </c>
-      <c r="H30" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="I30" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>43</v>
       </c>
@@ -1517,14 +1526,14 @@
       <c r="F31" t="s">
         <v>7</v>
       </c>
-      <c r="J31" t="s">
+      <c r="K31" t="s">
         <v>59</v>
       </c>
-      <c r="K31" t="s">
+      <c r="L31" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>60</v>
       </c>
@@ -1545,14 +1554,14 @@
       <c r="F32" t="s">
         <v>11</v>
       </c>
-      <c r="I32" t="s">
-        <v>10</v>
-      </c>
       <c r="J32" t="s">
+        <v>10</v>
+      </c>
+      <c r="K32" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>44</v>
       </c>
@@ -1573,11 +1582,11 @@
       <c r="F33" t="s">
         <v>11</v>
       </c>
-      <c r="I33" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="J33" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>45</v>
       </c>
@@ -1598,11 +1607,11 @@
       <c r="F34" t="s">
         <v>11</v>
       </c>
-      <c r="I34" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="J34" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>47</v>
       </c>
@@ -1626,14 +1635,14 @@
       <c r="G35" t="s">
         <v>7</v>
       </c>
-      <c r="H35" t="s">
-        <v>10</v>
-      </c>
-      <c r="J35" t="s">
+      <c r="I35" t="s">
+        <v>10</v>
+      </c>
+      <c r="K35" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>48</v>
       </c>
@@ -1654,11 +1663,11 @@
       <c r="F36" t="s">
         <v>8</v>
       </c>
-      <c r="J36" t="s">
+      <c r="K36" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>49</v>
       </c>
@@ -1680,7 +1689,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>50</v>
       </c>
@@ -1701,11 +1710,11 @@
       <c r="F38" t="s">
         <v>12</v>
       </c>
-      <c r="I38" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="J38" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>51</v>
       </c>
@@ -1729,11 +1738,11 @@
       <c r="G39" t="s">
         <v>7</v>
       </c>
-      <c r="H39" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="I39" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>52</v>
       </c>
@@ -1757,14 +1766,14 @@
       <c r="G40" t="s">
         <v>7</v>
       </c>
-      <c r="H40" t="s">
-        <v>10</v>
-      </c>
-      <c r="J40" t="s">
+      <c r="I40" t="s">
+        <v>10</v>
+      </c>
+      <c r="K40" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>62</v>
       </c>
@@ -1788,17 +1797,17 @@
       <c r="G41" t="s">
         <v>11</v>
       </c>
-      <c r="H41" t="s">
-        <v>10</v>
-      </c>
-      <c r="J41" t="s">
+      <c r="I41" t="s">
+        <v>10</v>
+      </c>
+      <c r="K41" t="s">
         <v>61</v>
       </c>
-      <c r="K41" t="s">
+      <c r="L41" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>53</v>
       </c>
@@ -1819,11 +1828,11 @@
       <c r="F42" t="s">
         <v>12</v>
       </c>
-      <c r="I42" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="J42" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>54</v>
       </c>
@@ -1845,7 +1854,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>57</v>
       </c>
@@ -1867,7 +1876,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>55</v>
       </c>
@@ -1889,7 +1898,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>56</v>
       </c>
@@ -1910,11 +1919,11 @@
       <c r="F46" t="s">
         <v>11</v>
       </c>
-      <c r="I46" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="J46" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>63</v>
       </c>
@@ -1935,18 +1944,21 @@
       <c r="F47" t="s">
         <v>7</v>
       </c>
-      <c r="J47" t="s">
+      <c r="H47" t="s">
+        <v>10</v>
+      </c>
+      <c r="K47" t="s">
         <v>32</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:K47">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:L47">
     <sortCondition ref="D2:D47"/>
     <sortCondition ref="C2:C47"/>
     <sortCondition ref="B2:B47"/>
   </sortState>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J2:P1048576" xr:uid="{7C74D076-EA55-1047-A177-90DE1DE45E39}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K2:Q1048576" xr:uid="{7C74D076-EA55-1047-A177-90DE1DE45E39}">
       <formula1>$A:$A</formula1>
     </dataValidation>
   </dataValidations>
